--- a/1b-job-postings.xlsx
+++ b/1b-job-postings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy\Documents\Tuan_Huy\Coursera\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8738F796-8C5D-4A0A-A344-E5D8F19AC7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D927C0-D5F9-40CC-BC36-4AB47F837984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -133,6 +133,1013 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>languages!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Jobs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>languages!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>MySQL Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PostgreSQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scala</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MongoDB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SQL Server</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Oracle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>languages!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F575-4548-BD07-436BCFF2ADC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="184153119"/>
+        <c:axId val="184161279"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="184153119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Languages</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="184161279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184161279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of jobs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="184153119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5444</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>310244</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EA4DC7-A9B0-FB64-5DEE-13A30E051FC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,101 +1516,105 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>13498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>333</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>305</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>2609</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>355</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>1173</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>784</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>250</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>174</v>
+        <v>13498</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
+    <sortCondition ref="B2:B13"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>